--- a/src/analysis_examples/circadb/results_lomb/cosinor_10399478_lpin1_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10399478_lpin1_.xlsx
@@ -589,21 +589,21 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.20684973012871447, 0.3399153287300428]</t>
+          <t>[0.20476703926795703, 0.34199801959080023]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.817154931555876e-08</v>
+        <v>4.670364162073781e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>2.817154931555876e-08</v>
+        <v>4.670364162073781e-08</v>
       </c>
       <c r="O2" t="n">
         <v>-0.7170001251436169</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-0.9685791164220783, -0.4654211338651555]</t>
+          <t>[-0.9685791164220792, -0.4654211338651546]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3826884922893572, 0.4536229299339065]</t>
+          <t>[0.3826552321605997, 0.453656190062664]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>2.824324324324412</v>
       </c>
       <c r="X2" t="n">
-        <v>1.833333333333393</v>
+        <v>1.833333333333389</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.81531531531543</v>
+        <v>3.815315315315434</v>
       </c>
     </row>
   </sheetData>
